--- a/medicine/Autisme/Pour_te_retrouver/Pour_te_retrouver.xlsx
+++ b/medicine/Autisme/Pour_te_retrouver/Pour_te_retrouver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour te retrouver est un téléfilm français en deux parties, écrit par Isabel Sebastian et réalisé par Bruno Garcia. Il est diffusé pour la première fois sur M6 en 2022.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un matin, Lucas, 11 ans, disparaît de son domicile. Son départ plonge Marion (Laëtitia Milot) et Alexis (Assaâd Bouab), ses parents fraîchement séparés, dans une angoisse insupportable car leur enfant, autiste, n’est pas équipé pour affronter seul le monde extérieur. Pour Marion et Alexis, c’est une véritable course contre la montre qui s’engage pour retrouver Lucas, les obligeant à se replonger dans leur passé.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Pour te retrouver
 Genre : Drame
@@ -560,8 +576,8 @@
 Format : couleur
 Durée : 2 × 45 minutes
 Date de première diffusion :
-Belgique : 3 novembre 2021 sur RTL TVI[1]
-France : 25 janvier 2022 sur M6[2]</t>
+Belgique : 3 novembre 2021 sur RTL TVI
+France : 25 janvier 2022 sur M6</t>
         </is>
       </c>
     </row>
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Laëtitia Milot : Marion Paillet
 Assaâd Bouab : Alexis Mercadal
